--- a/patents_2015.xlsx
+++ b/patents_2015.xlsx
@@ -1,3 +1,140 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -280,4 +417,320 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:BH1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_address_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_address_2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_address_3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_address_4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_5</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_address_5</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_6</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_address_6</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_7</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_address_7</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_8</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_address_8</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_9</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_address_9</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_10</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_address_10</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>abstract</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>publication_number</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>publication_date</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>application_number</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>application_date</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>ipc_number_1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>ipc_number_2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ipc_number_3</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_last_name_1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_first_name_1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_address_1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_last_name_2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_first_name_2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_address_2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_last_name_3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_first_name_3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_address_3</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_last_name_4</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_first_name_4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_address_4</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_last_name_5</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_first_name_5</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_address_5</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_last_name_6</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_first_name_6</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_address_6</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_last_name_7</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_first_name_7</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_address_7</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_last_name_8</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_first_name_8</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_address_8</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_last_name_9</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_first_name_9</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_address_9</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_last_name_10</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_first_name_10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>inventor_address_10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>